--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1101.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1101.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8031332334214427</v>
+        <v>1.176865220069885</v>
       </c>
       <c r="B1">
-        <v>1.194194210260128</v>
+        <v>2.416972637176514</v>
       </c>
       <c r="C1">
-        <v>2.342735395885616</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.335665464401245</v>
       </c>
       <c r="E1">
-        <v>1.814811100925618</v>
+        <v>1.203413844108582</v>
       </c>
     </row>
   </sheetData>
